--- a/InfoProyectoRedes2_Javier.xlsx
+++ b/InfoProyectoRedes2_Javier.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CastellanosU\OneDrive\Documentos\Clases\Redes2\Laboratorio\Proyecto1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0706234-E4E3-4AC5-8263-A640C6E4B26A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="43">
   <si>
     <t>No.</t>
   </si>
@@ -39,13 +40,425 @@
   </si>
   <si>
     <t>Explicación del Funcionamiento</t>
+  </si>
+  <si>
+    <t>Topología Hub-and-Spoke</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Router-Hub:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  CISCO2811 Cisco 2811 Router 2800 Series ISR</t>
+    </r>
+  </si>
+  <si>
+    <t>Cisco 2811 router 2811 w/ AC PWR, 2FE, 4HWICs, 2PVDMs, 1NME, 2AIMS, IP BASE, 128F/512D</t>
+  </si>
+  <si>
+    <t>Router designado para el sistema autónomo VODAFONE</t>
+  </si>
+  <si>
+    <t>Router utilizado como el centro o Hub de la topología Hub-and-Spoke</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Router-0:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  CISCO2811 Cisco 2811 Router 2800 Series ISR</t>
+    </r>
+  </si>
+  <si>
+    <t>Comandos configurados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enable </t>
+  </si>
+  <si>
+    <t>Habilita la configuración del router.</t>
+  </si>
+  <si>
+    <t>Protocolo OSPF</t>
+  </si>
+  <si>
+    <t>router ospf 1</t>
+  </si>
+  <si>
+    <t>Comando para configurar el protocolo con un Process ID.</t>
+  </si>
+  <si>
+    <t>show ip route ospf</t>
+  </si>
+  <si>
+    <t>network -IP- -máscara invertida- area n</t>
+  </si>
+  <si>
+    <t>Comando para asignar a un area las redes que formaran parte de ella donde n puede ser de 0 a 4294967295</t>
+  </si>
+  <si>
+    <t>Para ver las redes que pertenecen a las diferentes areas configuradas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La topología hub-and-spoke, también llamada estrella, tiene un componente central conectado con diversasr edes a ella. Especialmente el componente central es  un Router-Hub que debe ser de mayor capacidad que los demas componentes, y los demas componentes estan conectados unicamente al centro. La configuración de esta topología en el centro de datos local tradicional puede ser costosa. Pero en la nube no hay costos adicionales.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Router-Spoke1:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  CISCO2811 Cisco 2811 Router 2800 Series ISR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Router-Spoke2:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  CISCO2811 Cisco 2811 Router 2800 Series ISR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Router-Spoke3:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  CISCO2811 Cisco 2811 Router 2800 Series ISR</t>
+    </r>
+  </si>
+  <si>
+    <t>Redes conectadas</t>
+  </si>
+  <si>
+    <t>11.0.0.0                                                                    12.0.0.0                                                                               13.0.0.0                                                                      14.0.0.0                                                                          15.0.0.0                                                                     16.0.0.0                                                                                               17.0.0.0                                                                          18.0.0.0</t>
+  </si>
+  <si>
+    <t>12.0.0.0                                                                   192.168.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0.0.0                                                                    192.168.1.0  </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Router-Spoke4:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  CISCO2811 Cisco 2811 Router 2800 Series ISR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Router-Spoke5:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  CISCO2811 Cisco 2811 Router 2800 Series ISR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Router-Spoke6:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  CISCO2811 Cisco 2811 Router 2800 Series ISR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Router-Spoke7:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  CISCO2811 Cisco 2811 Router 2800 Series ISR</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0.0.0                                                                    192.168.2.0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0.0.0                                                                    192.168.3.0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0.0.0                                                                    192.168.4.0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0.0.0                                                                    192.168.5.0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0.0.0                                                                    192.168.6.0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para los Hosts y cada una de sus redes se utilizo 1 swith conectado a cada router de la topología </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Switches 2960-24TT: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Switch Cisco Catalyst</t>
+    </r>
+  </si>
+  <si>
+    <t>Switch Cisco Catalyst 2960-24TT</t>
+  </si>
+  <si>
+    <t>Switch para interconectar los Router Spoke y las redes para los Hosts</t>
+  </si>
+  <si>
+    <t>7 Switches</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,8 +474,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -75,8 +529,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -85,12 +551,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -98,16 +577,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -117,54 +618,139 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF888888"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF888888"/>
+      </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF888888"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+      <bottom style="medium">
+        <color rgb="FF888888"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -173,88 +759,178 @@
         <color theme="1" tint="0.499984740745262"/>
       </left>
       <right style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1"/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF888888"/>
       </left>
       <right style="medium">
-        <color theme="1"/>
+        <color rgb="FF888888"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF888888"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
+      <top/>
       <bottom style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -262,25 +938,135 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -297,6 +1083,558 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22392</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2280718</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>447675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2" descr="C2811-3G-S-SEC/K9 Cisco 2811 Hwic-3g-cdma-s 64MB Fl/256m Dram Adv Se  (Refurbished)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE851370-42AD-4819-8900-18751E492CB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3527592" y="3019424"/>
+          <a:ext cx="2258326" cy="1457326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2277376</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>361951</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3" descr="C2811-3G-S-SEC/K9 Cisco 2811 Hwic-3g-cdma-s 64MB Fl/256m Dram Adv Se  (Refurbished)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{883532FE-7957-4581-96D1-B7DE7B464015}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3524250" y="5238750"/>
+          <a:ext cx="2258326" cy="1457326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2267851</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>333376</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4" descr="C2811-3G-S-SEC/K9 Cisco 2811 Hwic-3g-cdma-s 64MB Fl/256m Dram Adv Se  (Refurbished)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8E353E5-AF21-414B-9C02-08B15F292FC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3514725" y="7343775"/>
+          <a:ext cx="2258326" cy="1457326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2267851</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>295276</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5" descr="C2811-3G-S-SEC/K9 Cisco 2811 Hwic-3g-cdma-s 64MB Fl/256m Dram Adv Se  (Refurbished)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{314A7A93-B7D1-4398-97A7-6E63EA27981F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3514725" y="9439275"/>
+          <a:ext cx="2258326" cy="1457326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2277376</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>323851</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6" descr="C2811-3G-S-SEC/K9 Cisco 2811 Hwic-3g-cdma-s 64MB Fl/256m Dram Adv Se  (Refurbished)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0509505A-2E51-42F2-A96D-7089D4797F09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3524250" y="13735050"/>
+          <a:ext cx="2258326" cy="1457326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2277376</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>333376</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7" descr="C2811-3G-S-SEC/K9 Cisco 2811 Hwic-3g-cdma-s 64MB Fl/256m Dram Adv Se  (Refurbished)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F432EAD8-F7E5-4017-84C1-AB7794B5666A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3524250" y="18011775"/>
+          <a:ext cx="2258326" cy="1457326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2267851</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>361951</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8" descr="C2811-3G-S-SEC/K9 Cisco 2811 Hwic-3g-cdma-s 64MB Fl/256m Dram Adv Se  (Refurbished)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86091D19-C7B5-4D87-BAF7-EBC859FFDCC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3514725" y="15906750"/>
+          <a:ext cx="2258326" cy="1457326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2277376</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>295276</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9" descr="C2811-3G-S-SEC/K9 Cisco 2811 Hwic-3g-cdma-s 64MB Fl/256m Dram Adv Se  (Refurbished)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{372EEB46-EE44-4AF9-B1E6-FB177190FFBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3524250" y="11572875"/>
+          <a:ext cx="2258326" cy="1457326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1514475</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>21268</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>768123</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F1BCE2-6695-4A6F-989E-30D869031416}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="14043" b="15686"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2647950" y="20157118"/>
+          <a:ext cx="5749698" cy="1102682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -561,90 +1899,725 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="2:6" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
+    <row r="5" spans="2:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+      <c r="C9" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="6"/>
+      <c r="C13" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6"/>
+      <c r="C14" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6"/>
+      <c r="C18" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6"/>
+      <c r="C19" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="6"/>
+      <c r="C23" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="6"/>
+      <c r="C24" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="6"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="6"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B27" s="4">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="6"/>
+      <c r="C28" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="6"/>
+      <c r="C29" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="6"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="6"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B32" s="4">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="6"/>
+      <c r="C33" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="6"/>
+      <c r="C34" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="6"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="6"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B37" s="4">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="6"/>
+      <c r="C38" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="6"/>
+      <c r="C39" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="6"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="6"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B42" s="4">
+        <v>9</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="6"/>
+      <c r="C43" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="6"/>
+      <c r="C44" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="6"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="30"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B47" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="40"/>
+    </row>
+    <row r="48" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B48" s="4">
+        <v>10</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="41"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="42"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="43"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="44"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="43"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="44"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="43"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="44"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="43"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="44"/>
+    </row>
+    <row r="54" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="45"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="48"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="C49:F54"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C14:C16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>